--- a/Semester 2/Advanced Statistical Techniques/Solutions.xlsx
+++ b/Semester 2/Advanced Statistical Techniques/Solutions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BITS-Assignment\Semester 2\Advanced Statistical Techniques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\BITS-Assignment\Semester 2\Advanced Statistical Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9E382D-4484-45CA-A81E-20305A8F6A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8280133-951C-4827-B767-F683B61364A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="12810" windowHeight="15750" xr2:uid="{11137FDB-529D-4243-8EEE-106B92F7F54B}"/>
+    <workbookView xWindow="31590" yWindow="5355" windowWidth="12810" windowHeight="15750" xr2:uid="{11137FDB-529D-4243-8EEE-106B92F7F54B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>X</t>
   </si>
@@ -141,12 +142,188 @@
   <si>
     <t>CF</t>
   </si>
+  <si>
+    <t>Z^2</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>SSTR</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q.4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A manager of a Merchandising firm wishes to test whether its three salesmen X, Y and Z tend to make sales of the same size or whether they differ in their selling abilities. During a
+week there have been 14 sale call; X made 5 calls, Y made 4 calls and Z made 5 calls. Following
+are the weekly sales record of three salesmen:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Feedback scores of three professors in four different courses taught by them are given below. Test the hypothesis that the feedback of professors is same for all the courses at 1% level of significance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Course A</t>
+  </si>
+  <si>
+    <t>Course B</t>
+  </si>
+  <si>
+    <t>Course C</t>
+  </si>
+  <si>
+    <t>Course D</t>
+  </si>
+  <si>
+    <t>Sigma^2</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>Sigma^2/Nc</t>
+  </si>
+  <si>
+    <t>Sigm^2</t>
+  </si>
+  <si>
+    <t>Sigma^2/Nr</t>
+  </si>
+  <si>
+    <t>A^2</t>
+  </si>
+  <si>
+    <t>B^2</t>
+  </si>
+  <si>
+    <t>C^2</t>
+  </si>
+  <si>
+    <t>D^2</t>
+  </si>
+  <si>
+    <t>dfc</t>
+  </si>
+  <si>
+    <t>dfr</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>Ftreatment</t>
+  </si>
+  <si>
+    <t>Fblock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the hypothesis that average life of the two processes are significantly different at 5% level of significance</t>
+    </r>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>SAMPLE SIZE</t>
+  </si>
+  <si>
+    <t>MEAN LIFE</t>
+  </si>
+  <si>
+    <t>STANDARD DEVIATION</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>|t|</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +346,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,18 +438,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -264,6 +534,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,11 +901,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528F6EA-6B6E-4D8F-A108-CBDAFEF685E6}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="5"/>
+    <col min="14" max="20" width="9.140625" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="E3" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="18">
+        <f>SUM(B3:E3)</f>
+        <v>15.6</v>
+      </c>
+      <c r="G3" s="18" cm="1">
+        <f t="array" ref="G3:G5">F3:F5*F3:F5</f>
+        <v>243.35999999999999</v>
+      </c>
+      <c r="H3" s="18" cm="1">
+        <f t="array" ref="H3:H5">G3:G5/4</f>
+        <v>60.839999999999996</v>
+      </c>
+      <c r="I3" s="18" cm="1">
+        <f t="array" ref="I3:I5">B3:B5*B3:B5</f>
+        <v>20.25</v>
+      </c>
+      <c r="J3" s="18" cm="1">
+        <f t="array" ref="J3:J5">C3:C5*C3:C5</f>
+        <v>17.64</v>
+      </c>
+      <c r="K3" s="18" cm="1">
+        <f t="array" ref="K3:K5">D3:D5*D3:D5</f>
+        <v>10.889999999999999</v>
+      </c>
+      <c r="L3" s="18" cm="1">
+        <f t="array" ref="L3:L5">E3:E5*E3:E5</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3.8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18">
+        <f>SUM(B4:E4)</f>
+        <v>14.6</v>
+      </c>
+      <c r="G4" s="18">
+        <v>213.16</v>
+      </c>
+      <c r="H4" s="18">
+        <v>53.29</v>
+      </c>
+      <c r="I4" s="18">
+        <v>14.44</v>
+      </c>
+      <c r="J4" s="18">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="K4" s="18">
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="L4" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUM(B5:E5)</f>
+        <v>13.8</v>
+      </c>
+      <c r="G5" s="18">
+        <v>190.44000000000003</v>
+      </c>
+      <c r="H5" s="18">
+        <v>47.610000000000007</v>
+      </c>
+      <c r="I5" s="18">
+        <v>16</v>
+      </c>
+      <c r="J5" s="18">
+        <v>11.559999999999999</v>
+      </c>
+      <c r="K5" s="18">
+        <v>11.559999999999999</v>
+      </c>
+      <c r="L5" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18">
+        <f>SUM(B3:B5)</f>
+        <v>12.3</v>
+      </c>
+      <c r="C6" s="18">
+        <f>SUM(C3:C5)</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(D3:D5)</f>
+        <v>9.4</v>
+      </c>
+      <c r="E6" s="18">
+        <f>SUM(E3:E5)</f>
+        <v>10.6</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
+        <f>SUM(_xlfn.ANCHORARRAY(I3))</f>
+        <v>50.69</v>
+      </c>
+      <c r="J6" s="18">
+        <f>SUM(_xlfn.ANCHORARRAY(J3))</f>
+        <v>46.010000000000005</v>
+      </c>
+      <c r="K6" s="18">
+        <f>SUM(_xlfn.ANCHORARRAY(K3))</f>
+        <v>29.74</v>
+      </c>
+      <c r="L6" s="18">
+        <f>SUM(_xlfn.ANCHORARRAY(L3))</f>
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="18">
+        <f>B6*B6</f>
+        <v>151.29000000000002</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6*C6</f>
+        <v>136.89000000000001</v>
+      </c>
+      <c r="D7" s="18">
+        <f>D6*D6</f>
+        <v>88.360000000000014</v>
+      </c>
+      <c r="E7" s="18">
+        <f>E6*E6</f>
+        <v>112.36</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="18">
+        <f>B7/3</f>
+        <v>50.430000000000007</v>
+      </c>
+      <c r="C8" s="18">
+        <f>C7/3</f>
+        <v>45.63</v>
+      </c>
+      <c r="D8" s="18">
+        <f>D7/3</f>
+        <v>29.453333333333337</v>
+      </c>
+      <c r="E8" s="18">
+        <f>E7/3</f>
+        <v>37.453333333333333</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B6:E6)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B9*B9/12</f>
+        <v>161.33333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM(B8:E8) - B10</f>
+        <v>1.6333333333333258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(_xlfn.ANCHORARRAY(H3)) - B10</f>
+        <v>0.40666666666666629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUM(I6:L6) - B10</f>
+        <v>3.0666666666666629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B13-(B11+B12)</f>
+        <v>1.0266666666666708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B15*B16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B11/B15</f>
+        <v>0.54444444444444196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5">
+        <f>B12/B16</f>
+        <v>0.20333333333333314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B14/B17</f>
+        <v>0.1711111111111118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <f>B18/B20</f>
+        <v>3.1818181818181546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B19/B20</f>
+        <v>1.1883116883116824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="23">
+        <v>20</v>
+      </c>
+      <c r="C28" s="24">
+        <v>20400</v>
+      </c>
+      <c r="D28" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="23">
+        <v>25</v>
+      </c>
+      <c r="C29" s="24">
+        <v>21800</v>
+      </c>
+      <c r="D29" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5">
+        <f>ABS((C28-C29)/(SQRT((D28*D28/B28)+(D29*D29/B29))))</f>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A26:J26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A04AE40-6497-4E80-9064-05662714D4BB}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,724 +1412,736 @@
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>4.5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>4.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>4.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>4.5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>5</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>8.5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>5.5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>9.5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>9.5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>9.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>9</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>16</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>17</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>18</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>19</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>4.5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>4.5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>4.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>4.5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>8.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>7.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>9.5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>9.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>9.5</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>9</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" cm="1">
+      <c r="C10" s="14" cm="1">
         <f t="array" ref="C10:C29">B10:B29-C34</f>
         <v>0.42499999999999982</v>
       </c>
-      <c r="D10" cm="1">
+      <c r="D10" s="14" cm="1">
         <f t="array" ref="D10:D29">_xlfn.ANCHORARRAY(C10)*_xlfn.ANCHORARRAY(C10)</f>
         <v>0.18062499999999984</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>8.5</v>
       </c>
-      <c r="F10" cm="1">
+      <c r="F10" s="14" cm="1">
         <f t="array" ref="F10:F29">E10:E29-C35</f>
         <v>-0.52500000000000036</v>
       </c>
-      <c r="G10" cm="1">
+      <c r="G10" s="14" cm="1">
         <f t="array" ref="G10:G29">_xlfn.ANCHORARRAY(F10)*_xlfn.ANCHORARRAY(F10)</f>
         <v>0.2756250000000004</v>
       </c>
-      <c r="H10" cm="1">
+      <c r="H10" s="14" cm="1">
         <f t="array" ref="H10:H29">_xlfn.ANCHORARRAY(C10)*_xlfn.ANCHORARRAY(F10)</f>
         <v>-0.22312500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="14">
         <v>4.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="14">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>-1.5750000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>2.4806250000000007</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>5.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>-3.5250000000000004</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="14">
         <v>12.425625000000002</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>5.5518750000000008</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="14">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>9.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="14">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="14">
         <v>4.5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="14">
         <v>4.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>9.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="14">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="14">
         <v>4.5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="14">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="14">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>9.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="14">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="14">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="14">
         <v>-1.0625000000000146E-2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="14">
         <v>4.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="14">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="14">
         <v>4.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="14">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="14">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="14">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="14">
         <v>4.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="14">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="14">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>8.5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>-0.52500000000000036</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="14">
         <v>0.2756250000000004</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="14">
         <v>-0.22312500000000005</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="14">
         <v>3.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>-1.0750000000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="14">
         <v>1.1556250000000003</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="14">
         <v>2.6875000000000385E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="14">
         <v>4.5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <v>7.5</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="14">
         <v>-1.5250000000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="14">
         <v>2.3256250000000009</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <v>0.1143750000000003</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="14">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>9.5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="14">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="14">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>9.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="14">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="14">
         <v>4.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="14">
         <v>9.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="14">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="14">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="14">
         <v>9</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="14">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="14">
         <v>-1.0625000000000146E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="14">
         <v>4.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="14">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="14">
         <v>9.5</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="14">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="14">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D30" s="14">
         <v>5.1375000000000002</v>
       </c>
-      <c r="G31">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>19.737500000000001</v>
       </c>
-      <c r="H31">
+      <c r="H30" s="14">
         <v>5.7125000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -1319,11 +2153,11 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <f>H31/SQRT(D31*G31)</f>
+        <f>H30/SQRT(D30*G30)</f>
         <v>0.56728881928971908</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1332,123 +2166,314 @@
         <v>9.0250000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="39" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D40" s="9">
+        <v>7</v>
+      </c>
+      <c r="E40" s="9">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11">
+        <v>4</v>
+      </c>
+      <c r="E41" s="11">
+        <v>6</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="B42" s="11">
         <v>5</v>
       </c>
-      <c r="D39">
+      <c r="C42" s="11">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="D42" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="E42" s="11">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="F42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="H45" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="E46" s="14">
+        <v>5</v>
+      </c>
+      <c r="F46" s="14" cm="1">
+        <f t="array" ref="F46:F50">C46:C50*C46:C50</f>
+        <v>25</v>
+      </c>
+      <c r="G46" s="14" cm="1">
+        <f t="array" ref="G46:G50">D46:D50*D46:D50</f>
+        <v>9</v>
+      </c>
+      <c r="H46" s="14" cm="1">
+        <f t="array" ref="H46:H50">E46:E50*E46:E50</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="14">
+        <v>4</v>
+      </c>
+      <c r="D47" s="14">
         <v>7</v>
       </c>
-      <c r="D41">
+      <c r="E47" s="14">
+        <v>3</v>
+      </c>
+      <c r="F47" s="14">
+        <v>16</v>
+      </c>
+      <c r="G47" s="14">
+        <v>49</v>
+      </c>
+      <c r="H47" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="14">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14">
         <v>4</v>
       </c>
-      <c r="E41">
+      <c r="E48" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="F48" s="14">
+        <v>49</v>
+      </c>
+      <c r="G48" s="14">
+        <v>16</v>
+      </c>
+      <c r="H48" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="14">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="D49" s="14">
         <v>6</v>
       </c>
-      <c r="E42">
+      <c r="E49" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C43">
+      <c r="F49" s="14">
+        <v>64</v>
+      </c>
+      <c r="G49" s="14">
+        <v>36</v>
+      </c>
+      <c r="H49" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="14">
         <v>6</v>
       </c>
-      <c r="D43">
+      <c r="D50" s="14">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E50" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="F50" s="14">
+        <v>36</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C44">
-        <f>SUM(C39:C43)</f>
+      <c r="C51" s="14">
+        <f>SUM(C46:C50)</f>
         <v>30</v>
       </c>
-      <c r="D44">
-        <f>SUM(D39:D43)</f>
+      <c r="D51" s="14">
+        <f>SUM(D46:D50)</f>
         <v>20</v>
       </c>
-      <c r="E44">
-        <f>SUM(E39:E43)</f>
+      <c r="E51" s="14">
+        <f>SUM(E46:E50)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="F51" s="14">
+        <f>SUM(_xlfn.ANCHORARRAY(F46))</f>
+        <v>190</v>
+      </c>
+      <c r="G51" s="14">
+        <f>SUM(_xlfn.ANCHORARRAY(G46))</f>
+        <v>110</v>
+      </c>
+      <c r="H51" s="14">
+        <f>SUM(_xlfn.ANCHORARRAY(H46))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F53" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <f>SUM(C44:E44)</f>
+      <c r="G53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="14">
+        <f>SUM(C51:E51)</f>
         <v>70</v>
       </c>
-      <c r="D47">
-        <f>C47*C47</f>
+      <c r="D54" s="14">
+        <f>C54*C54</f>
         <v>4900</v>
       </c>
-      <c r="E47">
+      <c r="E54" s="14">
         <v>14</v>
       </c>
-      <c r="F47">
-        <f>D47/E47</f>
+      <c r="F54" s="14">
+        <f>D54/E54</f>
         <v>350</v>
       </c>
+      <c r="G54" s="14">
+        <f>SUM(F51+G51+H51) - F54</f>
+        <v>34</v>
+      </c>
+      <c r="H54" s="14">
+        <f>SUM((C51*C51/5) + (D51*D51/4) + (E51*E51/5)) - F54</f>
+        <v>10</v>
+      </c>
+      <c r="I54" s="14">
+        <f>G54-H54</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="14">
+        <f>H54/2</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="14">
+        <f>I54/11</f>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="E57" s="14">
+        <f>C57/D57</f>
+        <v>2.291666666666667</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A39:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Semester 2/Advanced Statistical Techniques/Solutions.xlsx
+++ b/Semester 2/Advanced Statistical Techniques/Solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\BITS-Assignment\Semester 2\Advanced Statistical Techniques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BITS-Assignment\Semester 2\Advanced Statistical Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8280133-951C-4827-B767-F683B61364A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3C27A-C608-48D5-9813-70C06A0AB21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="5355" windowWidth="12810" windowHeight="15750" xr2:uid="{11137FDB-529D-4243-8EEE-106B92F7F54B}"/>
+    <workbookView xWindow="31470" yWindow="2940" windowWidth="15120" windowHeight="15750" xr2:uid="{11137FDB-529D-4243-8EEE-106B92F7F54B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>X</t>
   </si>
@@ -316,14 +316,32 @@
     <t>B</t>
   </si>
   <si>
-    <t>|t|</t>
+    <t>Z 95% two tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject H0 </t>
+  </si>
+  <si>
+    <t>Accept H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.3675</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	P</t>
+  </si>
+  <si>
+    <t>https://www.statskingdom.com/two-way-anova-calculator.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +383,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,10 +541,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -536,9 +563,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,9 +578,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -588,8 +609,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,17 +939,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528F6EA-6B6E-4D8F-A108-CBDAFEF685E6}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="5" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="5"/>
     <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
     <col min="9" max="13" width="9.140625" style="5"/>
@@ -921,287 +958,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="15">
         <v>4.2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>3.3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>3.6</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f>SUM(B3:E3)</f>
         <v>15.6</v>
       </c>
-      <c r="G3" s="18" cm="1">
+      <c r="G3" s="16" cm="1">
         <f t="array" ref="G3:G5">F3:F5*F3:F5</f>
         <v>243.35999999999999</v>
       </c>
-      <c r="H3" s="18" cm="1">
+      <c r="H3" s="16" cm="1">
         <f t="array" ref="H3:H5">G3:G5/4</f>
         <v>60.839999999999996</v>
       </c>
-      <c r="I3" s="18" cm="1">
+      <c r="I3" s="16" cm="1">
         <f t="array" ref="I3:I5">B3:B5*B3:B5</f>
         <v>20.25</v>
       </c>
-      <c r="J3" s="18" cm="1">
+      <c r="J3" s="16" cm="1">
         <f t="array" ref="J3:J5">C3:C5*C3:C5</f>
         <v>17.64</v>
       </c>
-      <c r="K3" s="18" cm="1">
+      <c r="K3" s="16" cm="1">
         <f t="array" ref="K3:K5">D3:D5*D3:D5</f>
         <v>10.889999999999999</v>
       </c>
-      <c r="L3" s="18" cm="1">
+      <c r="L3" s="16" cm="1">
         <f t="array" ref="L3:L5">E3:E5*E3:E5</f>
         <v>12.96</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>3.8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>2.7</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>4</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f>SUM(B4:E4)</f>
         <v>14.6</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>213.16</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>53.29</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>14.44</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>16.809999999999999</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>7.2900000000000009</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>3.4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>3.4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f>SUM(B5:E5)</f>
         <v>13.8</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>190.44000000000003</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>47.610000000000007</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>16</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>11.559999999999999</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>11.559999999999999</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <f>SUM(B3:B5)</f>
         <v>12.3</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <f>SUM(C3:C5)</f>
         <v>11.700000000000001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>SUM(D3:D5)</f>
         <v>9.4</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <f>SUM(E3:E5)</f>
         <v>10.6</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
         <f>SUM(_xlfn.ANCHORARRAY(I3))</f>
         <v>50.69</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <f>SUM(_xlfn.ANCHORARRAY(J3))</f>
         <v>46.010000000000005</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <f>SUM(_xlfn.ANCHORARRAY(K3))</f>
         <v>29.74</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f>SUM(_xlfn.ANCHORARRAY(L3))</f>
         <v>37.96</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f>B6*B6</f>
         <v>151.29000000000002</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <f>C6*C6</f>
         <v>136.89000000000001</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>D6*D6</f>
         <v>88.360000000000014</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f>E6*E6</f>
         <v>112.36</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <f>B7/3</f>
         <v>50.430000000000007</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <f>C7/3</f>
         <v>45.63</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f>D7/3</f>
         <v>29.453333333333337</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <f>E7/3</f>
         <v>37.453333333333333</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5">
@@ -1210,7 +1247,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5">
@@ -1219,7 +1256,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5">
@@ -1228,7 +1265,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5">
@@ -1237,7 +1274,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="5">
@@ -1246,7 +1283,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5">
@@ -1255,7 +1292,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="5">
@@ -1263,7 +1300,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="5">
@@ -1271,7 +1308,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="5">
@@ -1280,7 +1317,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5">
@@ -1289,7 +1326,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="5">
@@ -1298,7 +1335,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="5">
@@ -1307,95 +1344,1513 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5">
         <f>B18/B20</f>
         <v>3.1818181818181546</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="D21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.10589999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="5">
         <f>B19/B20</f>
         <v>1.1883116883116824</v>
       </c>
+      <c r="D22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>20</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>20400</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>25</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>21800</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5">
+        <f>(C28-C29)/(SQRT((D28*D28/B28)+(D29*D29/B29)))</f>
+        <v>-46.666666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="5">
-        <f>ABS((C28-C29)/(SQRT((D28*D28/B28)+(D29*D29/B29))))</f>
-        <v>46.666666666666664</v>
-      </c>
+      <c r="B32" s="5">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7</v>
+      </c>
+      <c r="I38" s="2">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>5</v>
+      </c>
+      <c r="K39" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F40" s="4">
+        <v>9</v>
+      </c>
+      <c r="G40" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>9</v>
+      </c>
+      <c r="K40" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4">
+        <v>15</v>
+      </c>
+      <c r="G41" s="4">
+        <v>16</v>
+      </c>
+      <c r="H41" s="4">
+        <v>17</v>
+      </c>
+      <c r="I41" s="4">
+        <v>18</v>
+      </c>
+      <c r="J41" s="4">
+        <v>19</v>
+      </c>
+      <c r="K41" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>5</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H43" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>9</v>
+      </c>
+      <c r="K43" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="12">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12" t="b" cm="1">
+        <f t="array" ref="C46:C65">B21=B46:B65-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="12" cm="1">
+        <f t="array" ref="D46:D65">_xlfn.ANCHORARRAY(C46)*_xlfn.ANCHORARRAY(C46)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F46" s="12" cm="1">
+        <f t="array" ref="F46:F65">E46:E65-C71</f>
+        <v>-0.52500000000000036</v>
+      </c>
+      <c r="G46" s="12" cm="1">
+        <f t="array" ref="G46:G65">_xlfn.ANCHORARRAY(F46)*_xlfn.ANCHORARRAY(F46)</f>
+        <v>0.2756250000000004</v>
+      </c>
+      <c r="H46" s="12" cm="1">
+        <f t="array" ref="H46:H65">_xlfn.ANCHORARRAY(C46)*_xlfn.ANCHORARRAY(F46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>9</v>
+      </c>
+      <c r="F47" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" s="12">
+        <v>3</v>
+      </c>
+      <c r="C48" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F48" s="12">
+        <v>-3.5250000000000004</v>
+      </c>
+      <c r="G48" s="12">
+        <v>12.425625000000002</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="12">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C50" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>9</v>
+      </c>
+      <c r="F50" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C51" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C52" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>10</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0.97499999999999964</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.95062499999999928</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" s="12">
+        <v>5</v>
+      </c>
+      <c r="C53" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" s="12">
+        <v>5</v>
+      </c>
+      <c r="C54" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>9</v>
+      </c>
+      <c r="F54" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G54" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>9</v>
+      </c>
+      <c r="F55" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G55" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C56" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>10</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0.97499999999999964</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.95062499999999928</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C57" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12">
+        <v>10</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.97499999999999964</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.95062499999999928</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" s="12">
+        <v>5</v>
+      </c>
+      <c r="C58" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F58" s="12">
+        <v>-0.52500000000000036</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.2756250000000004</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="C59" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12">
+        <v>9</v>
+      </c>
+      <c r="F59" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G59" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C60" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F60" s="12">
+        <v>-1.5250000000000004</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2.3256250000000009</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61" s="12">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" s="12">
+        <v>5</v>
+      </c>
+      <c r="C62" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C63" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64" s="12">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>9</v>
+      </c>
+      <c r="F64" s="12">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+      <c r="G64" s="12">
+        <v>6.2500000000001779E-4</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C65" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.47499999999999964</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0.22562499999999966</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="12">
+        <v>5.1375000000000002</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12">
+        <v>19.737500000000001</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5.7125000000000004</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <f>91.5/20</f>
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <f>H66/SQRT(D66*G66)</f>
+        <v>0.56728881928971908</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <f>180.5/20</f>
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="8">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8">
+        <v>4</v>
+      </c>
+      <c r="D76" s="8">
+        <v>7</v>
+      </c>
+      <c r="E76" s="8">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8">
+        <v>6</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="10">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10">
+        <v>7</v>
+      </c>
+      <c r="D77" s="10">
+        <v>4</v>
+      </c>
+      <c r="E77" s="10">
+        <v>6</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="10">
+        <v>5</v>
+      </c>
+      <c r="C78" s="10">
+        <v>3</v>
+      </c>
+      <c r="D78" s="10">
+        <v>5</v>
+      </c>
+      <c r="E78" s="10">
+        <v>4</v>
+      </c>
+      <c r="F78" s="10">
+        <v>3</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82" s="12">
+        <v>5</v>
+      </c>
+      <c r="D82" s="12">
+        <v>3</v>
+      </c>
+      <c r="E82" s="12">
+        <v>5</v>
+      </c>
+      <c r="F82" s="12" cm="1">
+        <f t="array" ref="F82:F86">C82:C86*C82:C86</f>
+        <v>25</v>
+      </c>
+      <c r="G82" s="12" cm="1">
+        <f t="array" ref="G82:G86">D82:D86*D82:D86</f>
+        <v>9</v>
+      </c>
+      <c r="H82" s="12" cm="1">
+        <f t="array" ref="H82:H86">E82:E86*E82:E86</f>
+        <v>25</v>
+      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83" s="12">
+        <v>4</v>
+      </c>
+      <c r="D83" s="12">
+        <v>7</v>
+      </c>
+      <c r="E83" s="12">
+        <v>3</v>
+      </c>
+      <c r="F83" s="12">
+        <v>16</v>
+      </c>
+      <c r="G83" s="12">
+        <v>49</v>
+      </c>
+      <c r="H83" s="12">
+        <v>9</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84" s="12">
+        <v>7</v>
+      </c>
+      <c r="D84" s="12">
+        <v>4</v>
+      </c>
+      <c r="E84" s="12">
+        <v>5</v>
+      </c>
+      <c r="F84" s="12">
+        <v>49</v>
+      </c>
+      <c r="G84" s="12">
+        <v>16</v>
+      </c>
+      <c r="H84" s="12">
+        <v>25</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85" s="12">
+        <v>8</v>
+      </c>
+      <c r="D85" s="12">
+        <v>6</v>
+      </c>
+      <c r="E85" s="12">
+        <v>4</v>
+      </c>
+      <c r="F85" s="12">
+        <v>64</v>
+      </c>
+      <c r="G85" s="12">
+        <v>36</v>
+      </c>
+      <c r="H85" s="12">
+        <v>16</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86" s="12">
+        <v>6</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12">
+        <v>3</v>
+      </c>
+      <c r="F86" s="12">
+        <v>36</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0</v>
+      </c>
+      <c r="H86" s="12">
+        <v>9</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="12">
+        <f>SUM(C82:C86)</f>
+        <v>30</v>
+      </c>
+      <c r="D87" s="12">
+        <f>SUM(D82:D86)</f>
+        <v>20</v>
+      </c>
+      <c r="E87" s="12">
+        <f>SUM(E82:E86)</f>
+        <v>20</v>
+      </c>
+      <c r="F87" s="12">
+        <f>SUM(_xlfn.ANCHORARRAY(F82))</f>
+        <v>190</v>
+      </c>
+      <c r="G87" s="12">
+        <f>SUM(_xlfn.ANCHORARRAY(G82))</f>
+        <v>110</v>
+      </c>
+      <c r="H87" s="12">
+        <f>SUM(_xlfn.ANCHORARRAY(H82))</f>
+        <v>84</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90" s="12">
+        <f>SUM(C87:E87)</f>
+        <v>70</v>
+      </c>
+      <c r="D90" s="12">
+        <f>C90*C90</f>
+        <v>4900</v>
+      </c>
+      <c r="E90" s="12">
+        <v>14</v>
+      </c>
+      <c r="F90" s="12">
+        <f>D90/E90</f>
+        <v>350</v>
+      </c>
+      <c r="G90" s="12">
+        <f>SUM(F87+G87+H87) - F90</f>
+        <v>34</v>
+      </c>
+      <c r="H90" s="12">
+        <f>SUM((C87*C87/5) + (D87*D87/4) + (E87*E87/5)) - F90</f>
+        <v>10</v>
+      </c>
+      <c r="I90" s="12">
+        <f>G90-H90</f>
+        <v>24</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93" s="12">
+        <f>H90/2</f>
+        <v>5</v>
+      </c>
+      <c r="D93" s="12">
+        <f>I90/11</f>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="E93" s="12">
+        <f>C93/D93</f>
+        <v>2.291666666666667</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A23:XFD23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{110292BA-8003-40E9-A1D8-AAAFF87EA61A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1403,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A04AE40-6497-4E80-9064-05662714D4BB}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:K39"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,20 +2867,20 @@
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1638,506 +3093,506 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" cm="1">
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" cm="1">
         <f t="array" ref="C10:C29">B10:B29-C34</f>
         <v>0.42499999999999982</v>
       </c>
-      <c r="D10" s="14" cm="1">
+      <c r="D10" s="12" cm="1">
         <f t="array" ref="D10:D29">_xlfn.ANCHORARRAY(C10)*_xlfn.ANCHORARRAY(C10)</f>
         <v>0.18062499999999984</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>8.5</v>
       </c>
-      <c r="F10" s="14" cm="1">
+      <c r="F10" s="12" cm="1">
         <f t="array" ref="F10:F29">E10:E29-C35</f>
         <v>-0.52500000000000036</v>
       </c>
-      <c r="G10" s="14" cm="1">
+      <c r="G10" s="12" cm="1">
         <f t="array" ref="G10:G29">_xlfn.ANCHORARRAY(F10)*_xlfn.ANCHORARRAY(F10)</f>
         <v>0.2756250000000004</v>
       </c>
-      <c r="H10" s="14" cm="1">
+      <c r="H10" s="12" cm="1">
         <f t="array" ref="H10:H29">_xlfn.ANCHORARRAY(C10)*_xlfn.ANCHORARRAY(F10)</f>
         <v>-0.22312500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>9</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>-1.5750000000000002</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>2.4806250000000007</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>5.5</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>-3.5250000000000004</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>12.425625000000002</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>5.5518750000000008</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>9.5</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C14" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>9</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C15" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>9.5</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C16" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>10</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="12">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>9.5</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="12">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>9</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>-1.0625000000000146E-2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C19" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>9</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>1.8750000000000312E-3</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C20" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>10</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>0.97499999999999964</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>0.95062499999999928</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>-7.3125000000000148E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="12">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>8.5</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>-0.52500000000000036</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>0.2756250000000004</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>-0.22312500000000005</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>3.5</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>-1.0750000000000002</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>1.1556250000000003</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>9</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>2.6875000000000385E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>7.5</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>-1.5250000000000004</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>2.3256250000000009</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <v>0.1143750000000003</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>9.5</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="12">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>9.5</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>0.20187499999999978</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C27" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>9.5</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="12">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
         <v>0.42499999999999982</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>0.18062499999999984</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>9</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>-2.5000000000000355E-2</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>6.2500000000001779E-4</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>-1.0625000000000146E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C29" s="12">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>5.6250000000000267E-3</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>9.5</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>0.47499999999999964</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>0.22562499999999966</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>-3.5625000000000059E-2</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>5.1375000000000002</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
         <v>19.737500000000001</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>5.7125000000000004</v>
       </c>
     </row>
@@ -2167,305 +3622,305 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="9">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="A40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5</v>
+      </c>
+      <c r="C40" s="8">
         <v>4</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>7</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>8</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>3</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>7</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>4</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>6</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="11">
-        <v>5</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="10">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10">
         <v>3</v>
       </c>
-      <c r="D42" s="11">
-        <v>5</v>
-      </c>
-      <c r="E42" s="11">
+      <c r="D42" s="10">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10">
         <v>4</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="14">
-        <v>5</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="C46" s="12">
+        <v>5</v>
+      </c>
+      <c r="D46" s="12">
         <v>3</v>
       </c>
-      <c r="E46" s="14">
-        <v>5</v>
-      </c>
-      <c r="F46" s="14" cm="1">
+      <c r="E46" s="12">
+        <v>5</v>
+      </c>
+      <c r="F46" s="12" cm="1">
         <f t="array" ref="F46:F50">C46:C50*C46:C50</f>
         <v>25</v>
       </c>
-      <c r="G46" s="14" cm="1">
+      <c r="G46" s="12" cm="1">
         <f t="array" ref="G46:G50">D46:D50*D46:D50</f>
         <v>9</v>
       </c>
-      <c r="H46" s="14" cm="1">
+      <c r="H46" s="12" cm="1">
         <f t="array" ref="H46:H50">E46:E50*E46:E50</f>
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>4</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>7</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <v>3</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <v>16</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="12">
         <v>49</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="14">
+      <c r="C48" s="12">
         <v>7</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>4</v>
       </c>
-      <c r="E48" s="14">
-        <v>5</v>
-      </c>
-      <c r="F48" s="14">
+      <c r="E48" s="12">
+        <v>5</v>
+      </c>
+      <c r="F48" s="12">
         <v>49</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="12">
         <v>16</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>8</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>6</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <v>4</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="12">
         <v>64</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="12">
         <v>36</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="14">
+      <c r="C50" s="12">
         <v>6</v>
       </c>
-      <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
         <v>3</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="12">
         <v>36</v>
       </c>
-      <c r="G50" s="14">
-        <v>0</v>
-      </c>
-      <c r="H50" s="14">
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <f>SUM(C46:C50)</f>
         <v>30</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <f>SUM(D46:D50)</f>
         <v>20</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <f>SUM(E46:E50)</f>
         <v>20</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="12">
         <f>SUM(_xlfn.ANCHORARRAY(F46))</f>
         <v>190</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="12">
         <f>SUM(_xlfn.ANCHORARRAY(G46))</f>
         <v>110</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <f>SUM(_xlfn.ANCHORARRAY(H46))</f>
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="14">
+      <c r="C54" s="12">
         <f>SUM(C51:E51)</f>
         <v>70</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="12">
         <f>C54*C54</f>
         <v>4900</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="12">
         <v>14</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="12">
         <f>D54/E54</f>
         <v>350</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="12">
         <f>SUM(F51+G51+H51) - F54</f>
         <v>34</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="12">
         <f>SUM((C51*C51/5) + (D51*D51/4) + (E51*E51/5)) - F54</f>
         <v>10</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="12">
         <f>G54-H54</f>
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <f>H54/2</f>
         <v>5</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <f>I54/11</f>
         <v>2.1818181818181817</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
         <f>C57/D57</f>
         <v>2.291666666666667</v>
       </c>
